--- a/src/templates/template.xlsx
+++ b/src/templates/template.xlsx
@@ -15,14 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
-  <si>
-    <t>RAAAAMSSSSSISSS WAS HERE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>FOLIO NO.</t>
   </si>
   <si>
+    <t>S.CUU-100</t>
+  </si>
+  <si>
     <t>MANIFIESTO DEL CONTROL DE RESIDUOS LÍQUIDOS Y SÓLIDOS (NO PELIGROSOS).</t>
   </si>
   <si>
@@ -32,10 +32,13 @@
     <t>DIA</t>
   </si>
   <si>
+    <t>03</t>
+  </si>
+  <si>
     <t>MES</t>
   </si>
   <si>
-    <t>03</t>
+    <t>02</t>
   </si>
   <si>
     <t>AÑO</t>
@@ -44,19 +47,19 @@
     <t>RAZÓN SOCIAL:</t>
   </si>
   <si>
-    <t>MOLIERE GASTRONOMICA S.A. DE C.V RESTAURANTE SYRAH.</t>
+    <t>test_client_69</t>
   </si>
   <si>
     <t>DOMICILIO:</t>
   </si>
   <si>
-    <t>AV. EJERCITO NACIONAL 843-B LOCALES C-101 AL C-105, COL GRANADA, DEL. MIGUEL HIDALGO</t>
+    <t>dsfsdf</t>
   </si>
   <si>
     <t>CIUDAD:</t>
   </si>
   <si>
-    <t>CHIHUAHUA</t>
+    <t>chihuahua</t>
   </si>
   <si>
     <t>ESTADO:</t>
@@ -65,16 +68,19 @@
     <t>RESPONSABLE DE LOS RESIDUOS:</t>
   </si>
   <si>
+    <t>el ramses</t>
+  </si>
+  <si>
     <t>TIPO DE RESIDUO:</t>
   </si>
   <si>
-    <t>GRASA</t>
+    <t>Basura</t>
   </si>
   <si>
     <t>CANTIDAD:</t>
   </si>
   <si>
-    <t>100 lts</t>
+    <t>1000 kilos</t>
   </si>
   <si>
     <t>Nota: Bajo protesta de decir la verdad, certificamos que los desechos (no peligrosos) que se entregan a la compañía GRUPO AMBIENTAL SISA BIOENERGÉTICOS Y SERVICIOS AMBIENTALES. S.A. DE C.V., cumple con los parámetros que las autoridades ambientales han solicitado y de no ser asì, seremos acreedores a las sanciones que correspondan segùn las leyes y reglamentos aplicables.</t>
@@ -86,28 +92,28 @@
     <t>EMPRESA:</t>
   </si>
   <si>
-    <t>BIOENERGÉTICOS Y SERVICIOS AMBIENTALES, S.A. DE C.V.</t>
-  </si>
-  <si>
-    <t>RFC: BSA-111207-P54</t>
-  </si>
-  <si>
-    <t>Octavio Paz No. 141 Complejo Industrial Chihuahua</t>
-  </si>
-  <si>
-    <t>Chihuahua, Chihuahua C.P. 31109</t>
+    <t>SISA DE LA FRONTERA S.A.DE C.V.</t>
+  </si>
+  <si>
+    <t>RFC: SFR160331QF6</t>
+  </si>
+  <si>
+    <t>Av. Impulso #1803, Parque Industrial Impulso, C.P. 31136</t>
+  </si>
+  <si>
+    <t>Chihuahua, Chihuahua</t>
   </si>
   <si>
     <t>* Ecología Estatal; recolecciòn, transporte, almacenamiento, tratamiento y disposición final:</t>
   </si>
   <si>
-    <t>OFICIO N° SDUE.DE.557/2021</t>
+    <t>OFICIO N° SDUE.DE.DOEIA.2429/2021</t>
   </si>
   <si>
     <t>* Impacto Ambiental SEDUE</t>
   </si>
   <si>
-    <t>OFICIO N° DOEIA. I.A. 2619/2015</t>
+    <t>OFICIO N° DOEIA. I.A. 1781/2016</t>
   </si>
   <si>
     <t>* Uso de Suelo</t>
@@ -122,10 +128,10 @@
     <t>JMA-PSFS-027-02</t>
   </si>
   <si>
-    <t>* Relleno Sanitario</t>
-  </si>
-  <si>
-    <t>DSPM/SAU/291/2017</t>
+    <t>* Manejador de Residuos</t>
+  </si>
+  <si>
+    <t>DSPM/31/2021</t>
   </si>
   <si>
     <t>UNIDAD:</t>
@@ -134,6 +140,9 @@
     <t xml:space="preserve">OPERADOR: </t>
   </si>
   <si>
+    <t>RAMSES GARCIA UPDATE</t>
+  </si>
+  <si>
     <t>FIRMA:</t>
   </si>
   <si>
@@ -146,7 +155,7 @@
     <t>DESTINO FINAL:</t>
   </si>
   <si>
-    <t>BIOENERGETICOS Y SERVICIOS AMBIENTALES SA DE CV</t>
+    <t>basurero puerco</t>
   </si>
   <si>
     <t>FECHA</t>
@@ -158,10 +167,7 @@
     <t>RESPONSABLE</t>
   </si>
   <si>
-    <t>FERNANDO ALVAREZ DE LA PEÑA</t>
-  </si>
-  <si>
-    <t>SELLO</t>
+    <t>ramses</t>
   </si>
   <si>
     <t>FIRMA</t>
@@ -460,6 +466,154 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="0" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="sign" descr="sign"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="0" algn="br" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="0" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="sign" descr="sign"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="0" algn="br" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="333375"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="sign" descr="sign"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="0" algn="br" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="333375"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="sign" descr="sign"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="0" algn="br" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -759,8 +913,8 @@
   </sheetPr>
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A34">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A23">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="11.5546875" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -781,18 +935,13 @@
     <col min="14" max="14" width="7.44140625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="2" spans="1:14" customHeight="1" ht="17.4">
       <c r="K2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23" t="s">
         <v>1</v>
-      </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="23">
-        <v>3485</v>
       </c>
       <c r="N2" s="24"/>
     </row>
@@ -823,20 +972,20 @@
       <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>11</v>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N9" s="3">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="10" spans="1:14" customHeight="1" ht="5.1">
@@ -850,10 +999,10 @@
     </row>
     <row r="11" spans="1:14" customHeight="1" ht="15.6">
       <c r="A11" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -871,10 +1020,10 @@
     <row r="12" spans="1:14" customHeight="1" ht="5.1"/>
     <row r="13" spans="1:14">
       <c r="A13" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -892,10 +1041,10 @@
     <row r="14" spans="1:14" customHeight="1" ht="5.1"/>
     <row r="15" spans="1:14">
       <c r="A15" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -903,10 +1052,10 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -917,9 +1066,11 @@
     <row r="16" spans="1:14" customHeight="1" ht="5.1"/>
     <row r="17" spans="1:14">
       <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -934,10 +1085,10 @@
     <row r="18" spans="1:14" customHeight="1" ht="6"/>
     <row r="19" spans="1:14" customHeight="1" ht="17.4">
       <c r="A19" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:14" customHeight="1" ht="5.1"/>
@@ -953,10 +1104,10 @@
     <row r="22" spans="1:14" customHeight="1" ht="5.1"/>
     <row r="23" spans="1:14">
       <c r="A23" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="11"/>
@@ -965,7 +1116,7 @@
     <row r="24" spans="1:14" customHeight="1" ht="9.9"/>
     <row r="25" spans="1:14" customHeight="1" ht="42">
       <c r="A25" s="28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
@@ -984,16 +1135,16 @@
     <row r="26" spans="1:14" customHeight="1" ht="9.9"/>
     <row r="27" spans="1:14" customHeight="1" ht="15.6">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:14" customHeight="1" ht="5.1"/>
     <row r="29" spans="1:14">
       <c r="A29" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -1004,7 +1155,7 @@
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
@@ -1012,7 +1163,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="B30" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -1029,7 +1180,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="B31" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -1047,7 +1198,7 @@
     <row r="32" spans="1:14" customHeight="1" ht="9.9"/>
     <row r="33" spans="1:14" customHeight="1" ht="24.75">
       <c r="A33" s="30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -1056,68 +1207,72 @@
       <c r="F33" s="30"/>
       <c r="G33" s="13"/>
       <c r="H33" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L33" s="15"/>
     </row>
     <row r="34" spans="1:14" customHeight="1" ht="15.6">
       <c r="A34" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:14" customHeight="1" ht="15.6">
       <c r="A35" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:14" customHeight="1" ht="15.6">
       <c r="A36" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I36" s="14"/>
     </row>
     <row r="37" spans="1:14" customHeight="1" ht="15.6">
       <c r="A37" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:14" customHeight="1" ht="9"/>
     <row r="39" spans="1:14">
       <c r="A39" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" s="11"/>
       <c r="H39" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I39" s="11"/>
+      <c r="J39" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="40" spans="1:14" customHeight="1" ht="5.1"/>
     <row r="41" spans="1:14">
       <c r="A41" s="5"/>
       <c r="H41" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="I41"/>
     </row>
     <row r="42" spans="1:14" customHeight="1" ht="5.1"/>
     <row r="43" spans="1:14" customHeight="1" ht="9.9"/>
     <row r="44" spans="1:14" customHeight="1" ht="25.5">
       <c r="A44" s="28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
@@ -1136,59 +1291,57 @@
     <row r="45" spans="1:14" customHeight="1" ht="9.9"/>
     <row r="46" spans="1:14" customHeight="1" ht="15.6">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:14" customHeight="1" ht="9.9"/>
     <row r="48" spans="1:14">
       <c r="A48" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:14" customHeight="1" ht="15.6">
       <c r="A49" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="16" t="str">
         <f>J9</f>
-        <v>11</v>
+        <v>03</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E49" s="16" t="str">
         <f>L9</f>
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G49" s="16">
         <f>N9</f>
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="H49" s="17"/>
       <c r="J49" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K49"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I50" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I50" s="20"/>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
       <c r="L50" s="20"/>
@@ -1197,7 +1350,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B51" s="11"/>
       <c r="I51" s="20"/>
@@ -1211,7 +1364,7 @@
     <row r="54" spans="1:14" customHeight="1" ht="4.5" s="18" customFormat="1"/>
     <row r="55" spans="1:14" customHeight="1" ht="13.5">
       <c r="A55" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:14" customHeight="1" ht="9.9">
@@ -1219,22 +1372,22 @@
     </row>
     <row r="57" spans="1:14" customHeight="1" ht="9.9">
       <c r="A57" s="19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:14" customHeight="1" ht="9.9">
       <c r="A58" s="19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:14" customHeight="1" ht="15.6">
       <c r="A59" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:14" customHeight="1" ht="15.6">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1403,7 @@
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.19685039370079" right="0.19685039370079" top="0.19685039370079" bottom="0.19685039370079" header="0.31496062992126" footer="0.19685039370079"/>
-  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1259,6 +1412,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>